--- a/src/com/data/Test Cases Pa.xlsx
+++ b/src/com/data/Test Cases Pa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="75">
   <si>
     <t>TCID</t>
   </si>
@@ -41,54 +41,18 @@
     <t>APPLEROME18@GMAIL.COM</t>
   </si>
   <si>
-    <t>PayByCreditCardPaaTest</t>
-  </si>
-  <si>
-    <t>SignStandardTest</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
-    <t>ElevNewInstallTest</t>
-  </si>
-  <si>
     <t>pe_action</t>
   </si>
   <si>
-    <t>BUILD027 :: Permit Issued :: No :: No</t>
-  </si>
-  <si>
     <t>cpe</t>
   </si>
   <si>
-    <t>ElevAlterationTest</t>
-  </si>
-  <si>
-    <t>ElevNewOtherTest</t>
-  </si>
-  <si>
-    <t>ElevDismantleTest</t>
-  </si>
-  <si>
-    <t>ElevSignOffTest</t>
-  </si>
-  <si>
-    <t>ElevPtoFTest</t>
-  </si>
-  <si>
-    <t>ElevRemoveTest</t>
-  </si>
-  <si>
-    <t>ElevRenewPermitTest</t>
-  </si>
-  <si>
     <t>TPA</t>
   </si>
   <si>
-    <t>Tpa</t>
-  </si>
-  <si>
     <t>work_on_floors</t>
   </si>
   <si>
@@ -122,51 +86,24 @@
     <t>signature</t>
   </si>
   <si>
-    <t>Pa</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
     <t>file</t>
   </si>
   <si>
-    <t>Place of Assembly</t>
-  </si>
-  <si>
-    <t>Temporary Place of Assembly</t>
-  </si>
-  <si>
     <t>5 :: WEST 120 STREET :: Manhattan :: 1720 :: 7503</t>
   </si>
   <si>
     <t>30 :: WEST 120 STREET :: Manhattan :: 1718 :: 49</t>
   </si>
   <si>
-    <t>Place of Assembly Prof. Cert.</t>
-  </si>
-  <si>
     <t>Professional Certification</t>
   </si>
   <si>
-    <t>PaProfCert</t>
-  </si>
-  <si>
-    <t>TpaProfCert</t>
-  </si>
-  <si>
     <t>party</t>
   </si>
   <si>
-    <t>BUILD001 :: Yes :: BUILD001 Chief Plan Examiner :: BUILD040 Chief Plan Examiner</t>
-  </si>
-  <si>
-    <t>BUILD001 :: Yes :: BUILD001 Chief Plan Examiner :: null</t>
-  </si>
-  <si>
-    <t>LaaNew</t>
-  </si>
-  <si>
     <t xml:space="preserve">AJOETEST1@GMAIL.COM :: </t>
   </si>
   <si>
@@ -185,10 +122,124 @@
     <t>BUILD007 :: CPE/ACPE Team 1 :: Yes :: BUILD001 Chief Plan Examiner :: BUILD005 Plan Examiner</t>
   </si>
   <si>
-    <t>BUILD027 :: No :: Approved :: Yes</t>
-  </si>
-  <si>
-    <t>BUILD001 :: No :: Approved :: Yes</t>
+    <t>PaPayment</t>
+  </si>
+  <si>
+    <t>Place of Assembly with Payment</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>PaPaymentProfCert</t>
+  </si>
+  <si>
+    <t>40 :: WEST 120 STREET :: Manhattan :: 1718 :: 52</t>
+  </si>
+  <si>
+    <t>Place of Assembly Prof Cert with Payment</t>
+  </si>
+  <si>
+    <t>exempt</t>
+  </si>
+  <si>
+    <t>qa_super</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>Emergency Lighting</t>
+  </si>
+  <si>
+    <t>BUILD011 :: BUILD014 PA/PACO QA Administrator :: Yes :: BUILD001 Chief Plan Examiner :: BUILD005 Plan Examiner</t>
+  </si>
+  <si>
+    <t>qa_admin</t>
+  </si>
+  <si>
+    <t>BUILD014 :: Approved :: Yes :: null :: null</t>
+  </si>
+  <si>
+    <t>BUILD011 :: BUILD014 PA/PACO QA Administrator :: Yes :: null :: null :: null</t>
+  </si>
+  <si>
+    <t>cpe_2</t>
+  </si>
+  <si>
+    <t>BUILD005 :: No :: Approved :: Yes</t>
+  </si>
+  <si>
+    <t>BUILD001 :: null :: null :: null :: Approved</t>
+  </si>
+  <si>
+    <t>BUILD001 :: Yes :: BUILD005 Plan Examiner :: null :: null</t>
+  </si>
+  <si>
+    <t>PaExempt</t>
+  </si>
+  <si>
+    <t>PaExemptProfCert</t>
+  </si>
+  <si>
+    <t>TpaExempt</t>
+  </si>
+  <si>
+    <t>Place of Assembly Exempt</t>
+  </si>
+  <si>
+    <t>Place of Assembly Prof. Cert Exempt.</t>
+  </si>
+  <si>
+    <t>Temporary Place of Assembly Exempt</t>
+  </si>
+  <si>
+    <t>Pa24Plans</t>
+  </si>
+  <si>
+    <t>Place of Assembly 24 plans</t>
+  </si>
+  <si>
+    <t>Pa24PlansProfCert</t>
+  </si>
+  <si>
+    <t>Place of Assembly 24 plans Prof Cert</t>
+  </si>
+  <si>
+    <t>Tpa365Days</t>
+  </si>
+  <si>
+    <t>Temporary Place of Assembly Exempt 365 days</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>TpaPayment</t>
+  </si>
+  <si>
+    <t>Temporary Place of Assembly Payment</t>
+  </si>
+  <si>
+    <t>PaNoTR1</t>
+  </si>
+  <si>
+    <t>Place of Assembly Exempt without TR1</t>
+  </si>
+  <si>
+    <t>TpaNoTR1</t>
+  </si>
+  <si>
+    <t>Temporary Place of Assembly Exempt without TR1</t>
+  </si>
+  <si>
+    <t>add :: 24</t>
   </si>
 </sst>
 </file>
@@ -387,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,12 +626,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -600,12 +645,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,16 +1012,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1011,37 +1047,33 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1056,10 +1088,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1068,10 +1097,10 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1595,17 +1624,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="27" customWidth="1"/>
     <col min="4" max="16384" width="32.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -1616,317 +1645,146 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="A3" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1">
+      <c r="A4" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1">
+      <c r="A5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1">
-      <c r="A6" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="28" t="s">
+      <c r="A6" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="A7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1">
+      <c r="A8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="A9" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="28" t="s">
+      <c r="A10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="2" customFormat="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1">
-      <c r="B13" s="31"/>
-      <c r="C13" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1">
-      <c r="A14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1">
-      <c r="A15" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="2" customFormat="1">
-      <c r="A16" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="25"/>
-      <c r="C18" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="24"/>
-      <c r="C19" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="C20" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="C21" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="25"/>
-      <c r="C23" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="24"/>
-      <c r="C24" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="C25" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="C26" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="5"/>
-      <c r="C27" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="2" customFormat="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="32"/>
-      <c r="C29" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="32"/>
-      <c r="C30" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="2" customFormat="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="22"/>
-      <c r="C33" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="22"/>
-      <c r="C34" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="22"/>
-      <c r="C36" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="33"/>
-      <c r="C37" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="33"/>
-      <c r="C38" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="33"/>
-      <c r="C39" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="33"/>
-      <c r="C40" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="C45" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="C46" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="C47" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="C48" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="28" t="s">
+      <c r="A11" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="29"/>
+      <c r="C13" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="29"/>
+      <c r="C14" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="29"/>
+      <c r="C15" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="29"/>
+      <c r="C16" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="2" customFormat="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="2" customFormat="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="25" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1938,534 +1796,2107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S18" sqref="S18"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.28515625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="39.28515625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="27.140625" style="10"/>
+    <col min="1" max="1" width="33.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.7109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.28515625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44" style="8" customWidth="1"/>
+    <col min="22" max="22" width="31.85546875" style="8" customWidth="1"/>
+    <col min="23" max="23" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="27.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="20" customFormat="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-    </row>
-    <row r="2" spans="1:23" s="7" customFormat="1">
-      <c r="A2" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-    </row>
-    <row r="3" spans="1:23" s="8" customFormat="1">
-      <c r="A3" s="12" t="s">
+    <row r="1" spans="1:24" s="19" customFormat="1">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+    </row>
+    <row r="2" spans="1:24" s="6" customFormat="1">
+      <c r="A2" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+    </row>
+    <row r="3" spans="1:24" s="7" customFormat="1">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="S3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="30"/>
+    </row>
+    <row r="4" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="35" t="s">
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-    </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" ht="38.25">
-      <c r="A4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-    </row>
-    <row r="5" spans="1:23" ht="15">
-      <c r="A5" s="23"/>
+      <c r="X4" s="10"/>
+    </row>
+    <row r="5" spans="1:24" ht="15">
+      <c r="A5" s="22"/>
       <c r="D5" s="4"/>
-      <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
-    </row>
-    <row r="6" spans="1:23" s="7" customFormat="1">
-      <c r="A6" s="33" t="s">
+      <c r="T5"/>
+    </row>
+    <row r="6" spans="1:24" ht="15">
+      <c r="A6" s="22"/>
+      <c r="D6" s="4"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:24" s="19" customFormat="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+    </row>
+    <row r="8" spans="1:24" s="6" customFormat="1">
+      <c r="A8" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" s="7" customFormat="1">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-    </row>
-    <row r="7" spans="1:23" s="8" customFormat="1">
-      <c r="A7" s="12" t="s">
+      <c r="V9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="30"/>
+    </row>
+    <row r="10" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" spans="1:24" ht="15">
+      <c r="A11" s="22"/>
+      <c r="D11" s="4"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="1:24" s="6" customFormat="1">
+      <c r="A12" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:24" s="7" customFormat="1">
+      <c r="A13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C13" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="S13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V13" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" s="30"/>
+    </row>
+    <row r="14" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U14" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X14" s="10"/>
+    </row>
+    <row r="15" spans="1:24" ht="15">
+      <c r="A15" s="22"/>
+      <c r="D15" s="4"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+    </row>
+    <row r="16" spans="1:24" s="6" customFormat="1">
+      <c r="A16" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="1:24" s="7" customFormat="1">
+      <c r="A17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="Q17" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W17" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X17" s="30"/>
+    </row>
+    <row r="18" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A18" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V18" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X18" s="10"/>
+    </row>
+    <row r="19" spans="1:24" ht="15">
+      <c r="A19" s="22"/>
+      <c r="D19" s="4"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+    </row>
+    <row r="20" spans="1:24" s="6" customFormat="1">
+      <c r="A20" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="1:24" s="7" customFormat="1">
+      <c r="A21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="J21" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="K21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" s="30"/>
+    </row>
+    <row r="22" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A22" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S22" s="35"/>
+      <c r="U22" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="X22" s="10"/>
+    </row>
+    <row r="23" spans="1:24" ht="15">
+      <c r="A23" s="22"/>
+      <c r="D23" s="4"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+    </row>
+    <row r="24" spans="1:24" s="6" customFormat="1">
+      <c r="A24" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="1:24" s="7" customFormat="1">
+      <c r="A25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="U25" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V25" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W25" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X25" s="30"/>
+    </row>
+    <row r="26" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S26" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T26" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U26" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V26" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X26" s="10"/>
+    </row>
+    <row r="27" spans="1:24" ht="15">
+      <c r="A27" s="22"/>
+      <c r="D27" s="4"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+    </row>
+    <row r="28" spans="1:24" s="6" customFormat="1">
+      <c r="A28" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+    </row>
+    <row r="29" spans="1:24" s="7" customFormat="1">
+      <c r="A29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P29" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="R29" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T29" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U29" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V29" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W29" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X29" s="30"/>
+    </row>
+    <row r="30" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A30" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S30" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T30" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U30" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V30" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X30" s="10"/>
+    </row>
+    <row r="31" spans="1:24" ht="15">
+      <c r="A31" s="22"/>
+      <c r="D31" s="4"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+    </row>
+    <row r="32" spans="1:24" s="6" customFormat="1">
+      <c r="A32" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+    </row>
+    <row r="33" spans="1:24" s="7" customFormat="1">
+      <c r="A33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M33" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S33" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T33" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U33" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V33" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X33" s="30"/>
+    </row>
+    <row r="34" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A34" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="35" t="s">
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V34" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X34" s="10"/>
+    </row>
+    <row r="35" spans="1:24" ht="15">
+      <c r="A35" s="22"/>
+      <c r="D35" s="4"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+    </row>
+    <row r="36" spans="1:24" s="6" customFormat="1">
+      <c r="A36" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+    </row>
+    <row r="37" spans="1:24" s="7" customFormat="1">
+      <c r="A37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="P37" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S37" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U37" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V37" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W37" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X37" s="30"/>
+    </row>
+    <row r="38" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A38" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S38" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="35" t="s">
+      <c r="T38" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U38" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V38" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X38" s="10"/>
+    </row>
+    <row r="39" spans="1:24" ht="15">
+      <c r="A39" s="22"/>
+      <c r="D39" s="4"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+    </row>
+    <row r="40" spans="1:24" s="6" customFormat="1">
+      <c r="A40" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+    </row>
+    <row r="41" spans="1:24" s="7" customFormat="1">
+      <c r="A41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="G41" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P41" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S41" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T41" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="U41" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V41" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W41" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X41" s="30"/>
+    </row>
+    <row r="42" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A42" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S42" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T42" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="35" t="s">
+      <c r="U42" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V42" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W42" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X42" s="10"/>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" s="22"/>
+    </row>
+    <row r="44" spans="1:24" s="6" customFormat="1">
+      <c r="A44" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+    </row>
+    <row r="45" spans="1:24" s="7" customFormat="1">
+      <c r="A45" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-    </row>
-    <row r="8" spans="1:23" s="4" customFormat="1" ht="38.25">
-      <c r="A8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F45" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P45" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S45" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T45" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U45" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W45" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X45" s="30"/>
+    </row>
+    <row r="46" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A46" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S46" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T46" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U46" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V46" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X46" s="10"/>
+    </row>
+    <row r="47" spans="1:24" ht="15">
+      <c r="A47" s="22"/>
+      <c r="D47" s="4"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+    </row>
+    <row r="48" spans="1:24" s="6" customFormat="1">
+      <c r="A48" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+    </row>
+    <row r="49" spans="1:24" s="7" customFormat="1">
+      <c r="A49" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P49" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R49" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S49" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T49" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U49" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V49" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W49" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X49" s="30"/>
+    </row>
+    <row r="50" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A50" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S50" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T50" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U50" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-    </row>
-    <row r="9" spans="1:23" ht="15">
-      <c r="A9" s="23"/>
-      <c r="D9" s="4"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-    </row>
-    <row r="10" spans="1:23" s="7" customFormat="1">
-      <c r="A10" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-    </row>
-    <row r="11" spans="1:23" s="8" customFormat="1">
-      <c r="A11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="35" t="s">
+      <c r="V50" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W50" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="S11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-    </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" ht="38.25">
-      <c r="A12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="23"/>
-    </row>
-    <row r="14" spans="1:23" s="20" customFormat="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
+      <c r="X50" s="10"/>
+    </row>
+    <row r="51" spans="1:24" ht="15">
+      <c r="A51" s="22"/>
+      <c r="D51" s="4"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+    </row>
+    <row r="52" spans="1:24" s="19" customFormat="1">
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="22"/>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/com/data/Test Cases Pa.xlsx
+++ b/src/com/data/Test Cases Pa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="83">
   <si>
     <t>TCID</t>
   </si>
@@ -134,9 +134,6 @@
     <t>check</t>
   </si>
   <si>
-    <t>profit</t>
-  </si>
-  <si>
     <t>PaPaymentProfCert</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>Place of Assembly Prof Cert with Payment</t>
   </si>
   <si>
-    <t>exempt</t>
-  </si>
-  <si>
     <t>qa_super</t>
   </si>
   <si>
@@ -240,6 +234,36 @@
   </si>
   <si>
     <t>add :: 24</t>
+  </si>
+  <si>
+    <t>PA approved</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>AJOETEST2@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>PACO issued</t>
+  </si>
+  <si>
+    <t>APPLEROME18@GMAIL.COM :: profit</t>
+  </si>
+  <si>
+    <t>AJOETEST2@GMAIL.COM :: exempt</t>
+  </si>
+  <si>
+    <t>APPLEROME18@GMAIL.COM :: exempt</t>
+  </si>
+  <si>
+    <t>Tpa</t>
+  </si>
+  <si>
+    <t>TPA approved</t>
+  </si>
+  <si>
+    <t>TPACO issued</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1651,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -1651,7 +1675,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>3</v>
@@ -1659,7 +1683,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>3</v>
@@ -1667,7 +1691,7 @@
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1">
       <c r="A4" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="25" t="s">
@@ -1676,7 +1700,7 @@
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1">
       <c r="A5" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="25" t="s">
@@ -1685,7 +1709,7 @@
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1">
       <c r="A6" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="25" t="s">
@@ -1702,7 +1726,7 @@
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1">
       <c r="A8" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="25" t="s">
@@ -1711,7 +1735,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>3</v>
@@ -1719,7 +1743,7 @@
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1">
       <c r="A10" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="25" t="s">
@@ -1728,7 +1752,7 @@
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1">
       <c r="A11" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="25" t="s">
@@ -1737,7 +1761,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>3</v>
@@ -1761,21 +1785,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="29"/>
+    <row r="16" spans="1:3" s="2" customFormat="1">
+      <c r="A16" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="28"/>
       <c r="C16" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23"/>
+    <row r="17" spans="1:3">
+      <c r="A17" s="29"/>
       <c r="C17" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1">
-      <c r="A18" s="21"/>
+      <c r="A18" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="B18" s="23"/>
       <c r="C18" s="25" t="s">
         <v>3</v>
@@ -1783,7 +1811,7 @@
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="28"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="25" t="s">
         <v>3</v>
       </c>
@@ -1796,11 +1824,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -1812,7 +1840,7 @@
     <col min="5" max="5" width="14.7109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="28.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="42.7109375" style="8" customWidth="1"/>
@@ -1860,7 +1888,7 @@
     </row>
     <row r="2" spans="1:24" s="6" customFormat="1">
       <c r="A2" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1931,16 +1959,16 @@
         <v>32</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V3" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W3" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X3" s="30"/>
     </row>
@@ -1952,7 +1980,7 @@
         <v>73</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>26</v>
@@ -1967,7 +1995,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>29</v>
@@ -1984,7 +2012,7 @@
       <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" t="s">
         <v>7</v>
       </c>
       <c r="O4" s="10" t="s">
@@ -1997,32 +2025,96 @@
         <v>34</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S4" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="10"/>
+    </row>
+    <row r="5" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="35" t="s">
+      <c r="S5" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="10"/>
-    </row>
-    <row r="5" spans="1:24" ht="15">
-      <c r="A5" s="22"/>
-      <c r="D5" s="4"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
+      <c r="T5" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="15">
       <c r="A6" s="22"/>
@@ -2032,130 +2124,177 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:24" s="19" customFormat="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-    </row>
-    <row r="8" spans="1:24" s="6" customFormat="1">
-      <c r="A8" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-    </row>
-    <row r="9" spans="1:24" s="7" customFormat="1">
-      <c r="A9" s="11" t="s">
+    <row r="7" spans="1:24" s="6" customFormat="1">
+      <c r="A7" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="1:24" s="7" customFormat="1">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="31" t="s">
+      <c r="O8" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="30" t="s">
+      <c r="Q8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="31" t="s">
+      <c r="R8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="S8" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="T8" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="30"/>
+    </row>
+    <row r="9" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="U9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="V9" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="W9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X9" s="30"/>
+      <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" s="4" customFormat="1" ht="25.5">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -2167,13 +2306,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>20</v>
@@ -2197,22 +2333,22 @@
         <v>34</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T10" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U10" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V10" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X10" s="10"/>
     </row>
@@ -2224,1679 +2360,1871 @@
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:24" s="6" customFormat="1">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:24" s="19" customFormat="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+    </row>
+    <row r="13" spans="1:24" s="6" customFormat="1">
+      <c r="A13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" s="7" customFormat="1">
+      <c r="A14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" s="30"/>
+    </row>
+    <row r="15" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X15" s="10"/>
+    </row>
+    <row r="16" spans="1:24" ht="15">
+      <c r="A16" s="22"/>
+      <c r="D16" s="4"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+    </row>
+    <row r="17" spans="1:24" s="6" customFormat="1">
+      <c r="A17" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="1:24" s="7" customFormat="1">
+      <c r="A18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="U18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V18" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W18" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" s="30"/>
+    </row>
+    <row r="19" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="U19" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V19" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X19" s="10"/>
+    </row>
+    <row r="20" spans="1:24" ht="15">
+      <c r="A20" s="22"/>
+      <c r="D20" s="4"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:24" s="6" customFormat="1">
+      <c r="A21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="1:24" s="7" customFormat="1">
+      <c r="A22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="U22" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W22" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" s="30"/>
+    </row>
+    <row r="23" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X23" s="10"/>
+    </row>
+    <row r="24" spans="1:24" ht="15">
+      <c r="A24" s="22"/>
+      <c r="D24" s="4"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+    </row>
+    <row r="25" spans="1:24" s="6" customFormat="1">
+      <c r="A25" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="1:24" s="7" customFormat="1">
+      <c r="A26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V26" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W26" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X26" s="30"/>
+    </row>
+    <row r="27" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A27" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" s="35"/>
+      <c r="U27" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X27" s="10"/>
+    </row>
+    <row r="28" spans="1:24" ht="15">
+      <c r="A28" s="22"/>
+      <c r="D28" s="4"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+    </row>
+    <row r="29" spans="1:24" s="6" customFormat="1">
+      <c r="A29" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="1:24" s="7" customFormat="1">
+      <c r="A30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="U30" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V30" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W30" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X30" s="30"/>
+    </row>
+    <row r="31" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A31" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S31" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="T31" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="U31" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V31" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X31" s="10"/>
+    </row>
+    <row r="32" spans="1:24" ht="15">
+      <c r="A32" s="22"/>
+      <c r="D32" s="4"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+    </row>
+    <row r="33" spans="1:24" s="6" customFormat="1">
+      <c r="A33" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+    </row>
+    <row r="34" spans="1:24" s="7" customFormat="1">
+      <c r="A34" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P34" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T34" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="U34" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V34" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W34" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X34" s="30"/>
+    </row>
+    <row r="35" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S35" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="T35" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="U35" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V35" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X35" s="10"/>
+    </row>
+    <row r="36" spans="1:24" ht="15">
+      <c r="A36" s="22"/>
+      <c r="D36" s="4"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+    </row>
+    <row r="37" spans="1:24" s="6" customFormat="1">
+      <c r="A37" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+    </row>
+    <row r="38" spans="1:24" s="7" customFormat="1">
+      <c r="A38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P38" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T38" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U38" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V38" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W38" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X38" s="30"/>
+    </row>
+    <row r="39" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A39" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V39" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X39" s="10"/>
+    </row>
+    <row r="40" spans="1:24" ht="15">
+      <c r="A40" s="22"/>
+      <c r="D40" s="4"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+    </row>
+    <row r="41" spans="1:24" s="6" customFormat="1">
+      <c r="A41" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-    </row>
-    <row r="13" spans="1:24" s="7" customFormat="1">
-      <c r="A13" s="11" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+    </row>
+    <row r="42" spans="1:24" s="7" customFormat="1">
+      <c r="A42" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C42" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D42" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E42" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F42" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G42" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H42" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I42" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J42" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K42" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L42" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="M42" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N42" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O42" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P42" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="30" t="s">
+      <c r="Q42" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="31" t="s">
+      <c r="R42" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="34" t="s">
+      <c r="S42" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="T13" s="34" t="s">
+      <c r="T42" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="U42" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V42" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X42" s="30"/>
+    </row>
+    <row r="43" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A43" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S43" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="T43" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="U13" s="31" t="s">
+      <c r="U43" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V43" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W43" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="V13" s="31" t="s">
+      <c r="X43" s="10"/>
+    </row>
+    <row r="44" spans="1:24" ht="15">
+      <c r="A44" s="22"/>
+      <c r="D44" s="4"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+    </row>
+    <row r="45" spans="1:24" s="6" customFormat="1">
+      <c r="A45" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+    </row>
+    <row r="46" spans="1:24" s="7" customFormat="1">
+      <c r="A46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N46" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P46" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T46" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="U46" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V46" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W46" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X46" s="30"/>
+    </row>
+    <row r="47" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A47" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S47" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="T47" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="U47" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="W13" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X13" s="30"/>
-    </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" ht="25.5">
-      <c r="A14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="V47" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W47" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X47" s="10"/>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="22"/>
+    </row>
+    <row r="49" spans="1:24" s="6" customFormat="1">
+      <c r="A49" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+    </row>
+    <row r="50" spans="1:24" s="7" customFormat="1">
+      <c r="A50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P50" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R50" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S50" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="U50" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V50" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W50" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X50" s="30"/>
+    </row>
+    <row r="51" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A51" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="G51" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S51" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="T51" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="U51" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V51" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X51" s="10"/>
+    </row>
+    <row r="52" spans="1:24" ht="15">
+      <c r="A52" s="22"/>
+      <c r="D52" s="4"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+    </row>
+    <row r="53" spans="1:24" s="6" customFormat="1">
+      <c r="A53" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+    </row>
+    <row r="54" spans="1:24" s="7" customFormat="1">
+      <c r="A54" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P54" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q54" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R54" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S54" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T54" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="U54" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V54" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W54" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="X54" s="30"/>
+    </row>
+    <row r="55" spans="1:24" s="4" customFormat="1" ht="25.5">
+      <c r="A55" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="10" t="s">
+      <c r="L55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N55" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O55" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="35" t="s">
+      <c r="P55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S14" s="35" t="s">
+      <c r="R55" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T14" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="U14" s="35" t="s">
+      <c r="S55" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="V14" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="1:24" ht="15">
-      <c r="A15" s="22"/>
-      <c r="D15" s="4"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-    </row>
-    <row r="16" spans="1:24" s="6" customFormat="1">
-      <c r="A16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-    </row>
-    <row r="17" spans="1:24" s="7" customFormat="1">
-      <c r="A17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="T17" s="34" t="s">
+      <c r="T55" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="U17" s="31" t="s">
+      <c r="U55" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V55" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="W55" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="V17" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="W17" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X17" s="30"/>
-    </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" ht="25.5">
-      <c r="A18" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S18" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="T18" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="U18" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="V18" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X18" s="10"/>
-    </row>
-    <row r="19" spans="1:24" ht="15">
-      <c r="A19" s="22"/>
-      <c r="D19" s="4"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-    </row>
-    <row r="20" spans="1:24" s="6" customFormat="1">
-      <c r="A20" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-    </row>
-    <row r="21" spans="1:24" s="7" customFormat="1">
-      <c r="A21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="U21" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V21" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="W21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X21" s="30"/>
-    </row>
-    <row r="22" spans="1:24" s="4" customFormat="1" ht="25.5">
-      <c r="A22" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="S22" s="35"/>
-      <c r="U22" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X22" s="10"/>
-    </row>
-    <row r="23" spans="1:24" ht="15">
-      <c r="A23" s="22"/>
-      <c r="D23" s="4"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-    </row>
-    <row r="24" spans="1:24" s="6" customFormat="1">
-      <c r="A24" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-    </row>
-    <row r="25" spans="1:24" s="7" customFormat="1">
-      <c r="A25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R25" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="S25" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="T25" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="U25" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V25" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="W25" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X25" s="30"/>
-    </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" ht="25.5">
-      <c r="A26" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S26" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="T26" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="U26" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="V26" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X26" s="10"/>
-    </row>
-    <row r="27" spans="1:24" ht="15">
-      <c r="A27" s="22"/>
-      <c r="D27" s="4"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-    </row>
-    <row r="28" spans="1:24" s="6" customFormat="1">
-      <c r="A28" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-    </row>
-    <row r="29" spans="1:24" s="7" customFormat="1">
-      <c r="A29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N29" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P29" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R29" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="S29" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="T29" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="U29" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V29" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="W29" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X29" s="30"/>
-    </row>
-    <row r="30" spans="1:24" s="4" customFormat="1" ht="25.5">
-      <c r="A30" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q30" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S30" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="T30" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="U30" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="V30" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X30" s="10"/>
-    </row>
-    <row r="31" spans="1:24" ht="15">
-      <c r="A31" s="22"/>
-      <c r="D31" s="4"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-    </row>
-    <row r="32" spans="1:24" s="6" customFormat="1">
-      <c r="A32" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-    </row>
-    <row r="33" spans="1:24" s="7" customFormat="1">
-      <c r="A33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K33" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N33" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O33" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P33" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R33" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="S33" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="T33" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="U33" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V33" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="W33" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X33" s="30"/>
-    </row>
-    <row r="34" spans="1:24" s="4" customFormat="1" ht="25.5">
-      <c r="A34" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="V34" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W34" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X34" s="10"/>
-    </row>
-    <row r="35" spans="1:24" ht="15">
-      <c r="A35" s="22"/>
-      <c r="D35" s="4"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-    </row>
-    <row r="36" spans="1:24" s="6" customFormat="1">
-      <c r="A36" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-    </row>
-    <row r="37" spans="1:24" s="7" customFormat="1">
-      <c r="A37" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M37" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N37" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P37" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q37" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R37" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="S37" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="T37" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="U37" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V37" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="W37" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X37" s="30"/>
-    </row>
-    <row r="38" spans="1:24" s="4" customFormat="1" ht="25.5">
-      <c r="A38" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S38" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="T38" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="U38" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="V38" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W38" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X38" s="10"/>
-    </row>
-    <row r="39" spans="1:24" ht="15">
-      <c r="A39" s="22"/>
-      <c r="D39" s="4"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-    </row>
-    <row r="40" spans="1:24" s="6" customFormat="1">
-      <c r="A40" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-    </row>
-    <row r="41" spans="1:24" s="7" customFormat="1">
-      <c r="A41" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K41" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L41" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M41" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N41" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P41" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q41" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R41" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="S41" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="T41" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="U41" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V41" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="W41" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X41" s="30"/>
-    </row>
-    <row r="42" spans="1:24" s="4" customFormat="1" ht="25.5">
-      <c r="A42" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S42" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="T42" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="U42" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="V42" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W42" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X42" s="10"/>
-    </row>
-    <row r="43" spans="1:24">
-      <c r="A43" s="22"/>
-    </row>
-    <row r="44" spans="1:24" s="6" customFormat="1">
-      <c r="A44" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-    </row>
-    <row r="45" spans="1:24" s="7" customFormat="1">
-      <c r="A45" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M45" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N45" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O45" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P45" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q45" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R45" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="S45" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="T45" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="U45" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="W45" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X45" s="30"/>
-    </row>
-    <row r="46" spans="1:24" s="4" customFormat="1" ht="25.5">
-      <c r="A46" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S46" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="T46" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="U46" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="V46" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W46" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X46" s="10"/>
-    </row>
-    <row r="47" spans="1:24" ht="15">
-      <c r="A47" s="22"/>
-      <c r="D47" s="4"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-    </row>
-    <row r="48" spans="1:24" s="6" customFormat="1">
-      <c r="A48" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-    </row>
-    <row r="49" spans="1:24" s="7" customFormat="1">
-      <c r="A49" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M49" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N49" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O49" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P49" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q49" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R49" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="S49" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="T49" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="U49" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V49" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="W49" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X49" s="30"/>
-    </row>
-    <row r="50" spans="1:24" s="4" customFormat="1" ht="25.5">
-      <c r="A50" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N50" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O50" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q50" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S50" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="T50" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="U50" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="V50" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W50" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X50" s="10"/>
-    </row>
-    <row r="51" spans="1:24" ht="15">
-      <c r="A51" s="22"/>
-      <c r="D51" s="4"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-    </row>
-    <row r="52" spans="1:24" s="19" customFormat="1">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-    </row>
-    <row r="55" spans="1:24">
-      <c r="A55" s="22"/>
-    </row>
-    <row r="58" spans="1:24">
-      <c r="A58" s="22"/>
+      <c r="X55" s="10"/>
+    </row>
+    <row r="56" spans="1:24" ht="15">
+      <c r="A56" s="22"/>
+      <c r="D56" s="4"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+    </row>
+    <row r="57" spans="1:24" s="19" customFormat="1">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" s="22"/>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
